--- a/Mifos Automation Excels/Client/2358-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2358-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -119,15 +119,15 @@
   </si>
   <si>
     <t>Repayment</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00000000000"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,14 +260,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:F5"/>
+      <selection activeCell="A7" sqref="A7:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +658,7 @@
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>843.58</v>
       </c>
       <c r="C2" s="7"/>
@@ -670,10 +674,10 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>348</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="7">
+        <v>357.73</v>
+      </c>
+      <c r="B3" s="7">
         <v>7.67</v>
       </c>
       <c r="C3" s="7">
@@ -682,10 +686,10 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
-        <v>340.33</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E3" s="7">
+        <v>350.06</v>
+      </c>
+      <c r="F3" s="7">
         <v>28.45</v>
       </c>
     </row>
@@ -728,9 +732,6 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,10 +740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:P16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +766,7 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,104 +816,98 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B3" s="7">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42019</v>
+      </c>
+      <c r="D3" s="8">
+        <v>42019</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="7">
+        <v>843.58</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4156.42</v>
+      </c>
+      <c r="H3" s="7">
+        <v>7.67</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>851.25</v>
+      </c>
+      <c r="L3" s="7">
+        <v>851.25</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8">
-        <v>42005</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="9">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
       <c r="B4" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8">
-        <v>42019</v>
-      </c>
-      <c r="D4" s="8">
-        <v>42019</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14">
-        <v>843.58</v>
+        <v>42036</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>841.93</v>
       </c>
       <c r="G4" s="10">
-        <v>4156.42</v>
-      </c>
-      <c r="H4" s="14">
-        <v>7.67</v>
+        <v>3314.49</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9.32</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -924,7 +919,7 @@
         <v>851.25</v>
       </c>
       <c r="L4" s="7">
-        <v>851.25</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -932,110 +927,100 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
       <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>17</v>
-      </c>
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="8">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="14">
-        <v>841.93</v>
-      </c>
-      <c r="G5" s="10">
-        <v>3314.49</v>
-      </c>
-      <c r="H5" s="14">
-        <v>9.32</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="7">
-        <v>851.25</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>851.25</v>
-      </c>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>28</v>
+      </c>
       <c r="C6" s="8">
         <v>42064</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="9">
-        <v>5000</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="F6" s="7">
+        <v>832.12</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7482.37</v>
+      </c>
+      <c r="H6" s="7">
+        <v>19.13</v>
+      </c>
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
       <c r="K6" s="7">
-        <v>0</v>
+        <v>851.25</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="14">
-        <v>832.12</v>
-      </c>
-      <c r="G7" s="14">
-        <v>7482.37</v>
-      </c>
-      <c r="H7" s="14">
-        <v>19.13</v>
+      <c r="F7" s="7">
+        <v>789.04</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6693.33</v>
+      </c>
+      <c r="H7" s="7">
+        <v>62.21</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1055,34 +1040,30 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
       <c r="P7" s="7">
         <v>851.25</v>
       </c>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="14">
-        <v>789.04</v>
+      <c r="F8" s="7">
+        <v>796.24</v>
       </c>
       <c r="G8" s="10">
-        <v>6693.33</v>
-      </c>
-      <c r="H8" s="14">
-        <v>62.21</v>
+        <v>5897.09</v>
+      </c>
+      <c r="H8" s="7">
+        <v>55.01</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1102,34 +1083,30 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
       <c r="P8" s="7">
         <v>851.25</v>
       </c>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="14">
-        <v>796.54</v>
+      <c r="F9" s="7">
+        <v>801.17</v>
       </c>
       <c r="G9" s="10">
-        <v>5896.79</v>
-      </c>
-      <c r="H9" s="14">
-        <v>54.71</v>
+        <v>5095.92</v>
+      </c>
+      <c r="H9" s="7">
+        <v>50.08</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1149,34 +1126,30 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
       <c r="P9" s="7">
         <v>851.25</v>
       </c>
-      <c r="R9" s="14"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="14">
-        <v>801.76</v>
+      <c r="F10" s="7">
+        <v>809.37</v>
       </c>
       <c r="G10" s="10">
-        <v>5095.0200000000004</v>
-      </c>
-      <c r="H10" s="14">
-        <v>49.49</v>
+        <v>4286.55</v>
+      </c>
+      <c r="H10" s="7">
+        <v>41.88</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1196,34 +1169,30 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
       <c r="P10" s="7">
         <v>851.25</v>
       </c>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="14">
-        <v>810.2</v>
+      <c r="F11" s="7">
+        <v>814.84</v>
       </c>
       <c r="G11" s="10">
-        <v>4284.83</v>
-      </c>
-      <c r="H11" s="14">
-        <v>41.05</v>
+        <v>3471.71</v>
+      </c>
+      <c r="H11" s="7">
+        <v>36.409999999999997</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1243,34 +1212,30 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
       <c r="P11" s="7">
         <v>851.25</v>
       </c>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7">
         <v>31</v>
       </c>
       <c r="C12" s="8">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="14">
-        <v>815.92</v>
+      <c r="F12" s="7">
+        <v>821.76</v>
       </c>
       <c r="G12" s="10">
-        <v>3468.91</v>
-      </c>
-      <c r="H12" s="14">
-        <v>35.33</v>
+        <v>2649.95</v>
+      </c>
+      <c r="H12" s="7">
+        <v>29.49</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1290,34 +1255,30 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
       <c r="P12" s="7">
         <v>851.25</v>
       </c>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="14">
-        <v>823.03</v>
+      <c r="F13" s="7">
+        <v>829.47</v>
       </c>
       <c r="G13" s="10">
-        <v>2645.88</v>
-      </c>
-      <c r="H13" s="14">
-        <v>28.22</v>
+        <v>1820.48</v>
+      </c>
+      <c r="H13" s="7">
+        <v>21.78</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1337,34 +1298,30 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
       <c r="P13" s="7">
         <v>851.25</v>
       </c>
-      <c r="R13" s="14"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="14">
-        <v>830.84</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1815.04</v>
-      </c>
-      <c r="H14" s="14">
-        <v>20.41</v>
+      <c r="F14" s="7">
+        <v>835.79</v>
+      </c>
+      <c r="G14" s="7">
+        <v>984.69</v>
+      </c>
+      <c r="H14" s="7">
+        <v>15.46</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1384,34 +1341,30 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
       <c r="P14" s="7">
         <v>851.25</v>
       </c>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="14">
-        <v>837.32</v>
-      </c>
-      <c r="G15" s="10">
-        <v>977.72</v>
-      </c>
-      <c r="H15" s="14">
-        <v>13.93</v>
+      <c r="F15" s="7">
+        <v>843.16</v>
+      </c>
+      <c r="G15" s="7">
+        <v>141.53</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8.09</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1431,34 +1384,30 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
       <c r="P15" s="7">
         <v>851.25</v>
       </c>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="14">
-        <v>977.72</v>
+      <c r="F16" s="7">
+        <v>141.53</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="14">
-        <v>6.53</v>
+      <c r="H16" s="7">
+        <v>1.2</v>
       </c>
       <c r="I16" s="7">
         <v>0</v>
@@ -1466,8 +1415,8 @@
       <c r="J16" s="7">
         <v>0</v>
       </c>
-      <c r="K16" s="12">
-        <v>984.25</v>
+      <c r="K16" s="7">
+        <v>142.72999999999999</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
@@ -1478,15 +1427,53 @@
       <c r="N16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="14">
-        <v>984.25</v>
-      </c>
-      <c r="R16" s="14"/>
+      <c r="P16" s="7">
+        <v>142.72999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12">
+        <v>365</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <v>357.73</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>10357.73</v>
+      </c>
+      <c r="L17" s="12">
+        <v>851.25</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <v>9506.48</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C17:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1494,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1536,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1575,15 +1562,15 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="9">
-        <v>10000</v>
+      <c r="J2" s="10">
+        <v>9156.42</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1601,7 +1588,7 @@
         <v>843.58</v>
       </c>
       <c r="G3" s="7">
-        <v>7.97</v>
+        <v>7.67</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -1609,15 +1596,15 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
+      <c r="J3" s="10">
+        <v>4156.42</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1648,16 +1635,6 @@
       </c>
       <c r="K4"/>
       <c r="L4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="14"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2358-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2358-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -272,6 +277,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -281,6 +289,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +373,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +425,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,10 +785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,12 +806,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -806,17 +852,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -841,9 +888,10 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -881,14 +929,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -924,14 +973,15 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8">
@@ -956,9 +1006,10 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -994,14 +1045,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1037,14 +1089,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1080,14 +1133,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1123,14 +1177,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1166,14 +1221,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1209,14 +1265,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1252,14 +1309,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1295,14 +1353,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1338,14 +1397,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1381,14 +1441,15 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>851.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>851.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1424,23 +1485,24 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
         <v>142.72999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12">
         <v>365</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="14">
         <v>10000</v>
       </c>
@@ -1463,10 +1525,11 @@
       <c r="M17" s="12">
         <v>0</v>
       </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" s="13">
+      <c r="N17" s="15"/>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
         <v>9506.48</v>
       </c>
     </row>
@@ -1483,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
